--- a/TestScriptDataFiles/Login.xlsx
+++ b/TestScriptDataFiles/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="10560" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14250" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:D18"/>
+  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
